--- a/backend/Users.xlsx
+++ b/backend/Users.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD59FF7-C037-45A8-B70E-B5B1F66E631A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interview Projects\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90DF04-F4A7-4AD7-B834-339832E6A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -458,14 +461,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -481,7 +482,7 @@
         <v>24012011007</v>
       </c>
       <c r="B2" s="4">
-        <v>39358</v>
+        <v>39151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -497,7 +498,7 @@
         <v>24012011070</v>
       </c>
       <c r="B4" s="4">
-        <v>38845</v>
+        <v>38934</v>
       </c>
     </row>
     <row r="5" spans="1:2">
